--- a/Excel/Save/Manpower Consultants in Tamilnadu data 01-04-2023.xlsx
+++ b/Excel/Save/Manpower Consultants in Tamilnadu data 01-04-2023.xlsx
@@ -451,63 +451,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Yuva+Manpower+Consultancy+Pvt+Ltd/data=!4m7!3m6!1s0x3a5266fc18d07759:0x931ae55c74ae7886!8m2!3d13.0149511!4d80.204037!16s%2Fg%2F11b8_r0809!19sChIJWXfQGPxmUjoRhniudFzlGpM?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Overseas+Manpower+Corporation+Limited/data=!4m7!3m6!1s0x3a52670f0cdfb8af:0x5718920f00be1fd6!8m2!3d13.0134788!4d80.21337!16s%2Fg%2F11b66d046j!19sChIJr7jfDA9nUjoR1h--AA-SGFc?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Overseas+Manpower+Corporation+Limited/data=!4m7!3m6!1s0x3a52670f0cdfb8af:0x5718920f00be1fd6!8m2!3d13.0134788!4d80.21337!16s%2Fg%2F11b66d046j!19sChIJr7jfDA9nUjoR1h--AA-SGFc?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Yuva+Manpower+Consultancy+Pvt+Ltd/data=!4m7!3m6!1s0x3a5266fc18d07759:0x931ae55c74ae7886!8m2!3d13.0149511!4d80.204037!16s%2Fg%2F11b8_r0809!19sChIJWXfQGPxmUjoRhniudFzlGpM?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/VT+Manpower+Consultancy+Services/data=!4m7!3m6!1s0x3a52664de24303e9:0x4b2810d26448d69b!8m2!3d13.0413076!4d80.2445159!16s%2Fg%2F1tg7_x9m!19sChIJ6QND4k1mUjoRm9ZIZNIQKEs?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Chennai+Best+Job+Consultancy+FREE+Job+Portal/data=!4m7!3m6!1s0x3a5266ca80d0f837:0xf7da22316ef3bf12!8m2!3d13.0311644!4d80.2049068!16s%2Fg%2F11d_w6nv73!19sChIJN_jQgMpmUjoREr_zbjEi2vc?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Manpower+Consultancy/data=!4m7!3m6!1s0x3a5267003eb1f7bb:0xca622ee78d7cb72!8m2!3d13.0460404!4d80.2329063!16s%2Fg%2F1td6wj_f!19sChIJu_exPgBnUjoRcsvXeO4ipgw?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Appu+Manpower+Consultants/data=!4m7!3m6!1s0x3a5260d6cb0f9baf:0x83f2fb665845ab79!8m2!3d13.0275191!4d80.1803029!16s%2Fg%2F1tflw9h2!19sChIJr5sPy9ZgUjoReatFWGb78oM?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/SKR+Manpower+Services+%26+Consultants+Pte.+Ltd./data=!4m7!3m6!1s0x3a526751a8295555:0xcd3b8e192abca607!8m2!3d12.9967455!4d80.1953306!16s%2Fg%2F11f4tl6wd1!19sChIJVVUpqFFnUjoRB6a8KhmOO80?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Overseas+Manpower+Corporation+Ltd./data=!4m7!3m6!1s0x3a526711c5d66db1:0xcf5f7c262c12bd07!8m2!3d13.0196171!4d80.2198928!16s%2Fg%2F11h42qg9l7!19sChIJsW3WxRFnUjoRB70SLCZ8X88?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Das+Manpower+Consultancy+Services/data=!4m7!3m6!1s0x3a5266c24ef74f45:0x98f48ba38aca0b2b!8m2!3d13.0506481!4d80.207627!16s%2Fg%2F11c60c6vgf!19sChIJRU_3TsJmUjoRKwvKiqOL9Jg?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Dynamic+Manpower+Consultancy/data=!4m7!3m6!1s0x3a52674c15555555:0xcc4b8d832699a5e0!8m2!3d13.0037008!4d80.1916911!16s%2Fg%2F1tfd0tr8!19sChIJVVVVFUxnUjoR4KWZJoONS8w?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Chennai+Best+Job+Consultancy+FREE+Job+Portal/data=!4m7!3m6!1s0x3a5266ca80d0f837:0xf7da22316ef3bf12!8m2!3d13.0311644!4d80.2049068!16s%2Fg%2F11d_w6nv73!19sChIJN_jQgMpmUjoREr_zbjEi2vc?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Manpower+Consultancy/data=!4m7!3m6!1s0x3a5267003eb1f7bb:0xca622ee78d7cb72!8m2!3d13.0460404!4d80.2329063!16s%2Fg%2F1td6wj_f!19sChIJu_exPgBnUjoRcsvXeO4ipgw?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/DJAI+Manpower+Consultancy+Services+Pvt+Ltd/data=!4m7!3m6!1s0x3a52640ba22de2dd:0xaa6b83b8ec032ba2!8m2!3d13.0986681!4d80.1914947!16s%2Fg%2F11clzv3mjj!19sChIJ3eItogtkUjoRoisD7LiDa6o?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Universal+Overseas+Consultants-+Leading+Overseas+job+consultancy+in+Chennai/data=!4m7!3m6!1s0x3a5266e3a0662b49:0x2644913682c8b9b0!8m2!3d13.0387823!4d80.2181669!16s%2Fg%2F1tfm529m!19sChIJSStmoONmUjoRsLnIgjaRRCY?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/M+R+S+Manpower+Consultancy/data=!4m7!3m6!1s0x3a5267aa25240eb3:0x79b40d52d4725202!8m2!3d13.0305246!4d80.2386468!16s%2Fg%2F1tkb3jsm!19sChIJsw4kJapnUjoRAlJy1FINtHk?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/ElShaddai+International+Recruitment+Services/data=!4m7!3m6!1s0x3a5267234fffffff:0x28f5227836eaae3a!8m2!3d13.0234169!4d80.2049409!16s%2Fg%2F11hzs7qlp2!19sChIJ____TyNnUjoROq7qNngi9Sg?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -521,70 +521,70 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/SEYON+MANPOWER+SERVICES+%28P%29+LTD.,/data=!4m7!3m6!1s0x3a52675a2ad0d775:0xfefb41a883e7f348!8m2!3d13.0568437!4d80.2136781!16s%2Fg%2F11j0n_n551!19sChIJddfQKlpnUjoRSPPng6hB-_4?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Das+Manpower+Consultancy+Services/data=!4m7!3m6!1s0x3a5266c24ef74f45:0x98f48ba38aca0b2b!8m2!3d13.0506481!4d80.207627!16s%2Fg%2F11c60c6vgf!19sChIJRU_3TsJmUjoRKwvKiqOL9Jg?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Overseas+manpower+services/data=!4m7!3m6!1s0x3a526734db8cb979:0xf163c659cd72e25f!8m2!3d13.0485003!4d80.2045278!16s%2Fg%2F11jwlt3jbb!19sChIJebmM2zRnUjoRX-JyzVnGY_E?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/PROMPT+MANPOWER+SERVICES,+CHENNAI/data=!4m7!3m6!1s0x3a52678acbd75f89:0x160e849156a5e333!8m2!3d13.0402788!4d80.21677!16s%2Fg%2F11kv575fy9!19sChIJiV_Xy4pnUjoRM-OlVpGEDhY?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Appu+Manpower+Consultants/data=!4m7!3m6!1s0x3a5260d6cb0f9baf:0x83f2fb665845ab79!8m2!3d13.0275191!4d80.1803029!16s%2Fg%2F1tflw9h2!19sChIJr5sPy9ZgUjoReatFWGb78oM?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/X+L+Consultants/data=!4m7!3m6!1s0x3a526778ffffffff:0x5be851e476c61173!8m2!3d13.0261473!4d80.2022166!16s%2Fg%2F1td7g4mr!19sChIJ_____3hnUjoRcxHGduRR6Fs?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/SS+International+Manpower+Services+Chennai/data=!4m7!3m6!1s0x3a52611f5577687b:0x2ed3bad38921abab!8m2!3d13.0381628!4d80.1650276!16s%2Fg%2F11b6v36s5b!19sChIJe2h3VR9hUjoRq6shidO60y4?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/SKR+Manpower+Services+%26+Consultants+Pte.+Ltd./data=!4m7!3m6!1s0x3a526751a8295555:0xcd3b8e192abca607!8m2!3d12.9967455!4d80.1953306!16s%2Fg%2F11f4tl6wd1!19sChIJVVUpqFFnUjoRB6a8KhmOO80?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/AA+Manpower+Solutions+-+Best+Job+Consultancy+In+Chennai/data=!4m7!3m6!1s0x3a5266e985a8fc99:0xf1df03060f5e6f8b!8m2!3d13.0527546!4d80.2101942!16s%2Fg%2F11f0_c3gns!19sChIJmfyohelmUjoRi29eDwYD3_E?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Empower+Jobs+%26+HR+Services/data=!4m7!3m6!1s0x3a5267966281d597:0xee545e7be964ccb0!8m2!3d13.0257926!4d80.2005566!16s%2Fg%2F11ngpjzyfw!19sChIJl9WBYpZnUjoRsMxk6XteVO4?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Chennai+Manpower+consultancy/data=!4m7!3m6!1s0x3a5263f570011bcf:0xb988b4b64bfe0053!8m2!3d13.0996537!4d80.1868141!16s%2Fg%2F1ptz2pkk1!19sChIJzxsBcPVjUjoRUwD-S7a0iLk?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Paswi+Manpower+Consultant/data=!4m7!3m6!1s0x3a5260e23ea0a1ff:0xfa72a9a14a9a4b4f!8m2!3d13.0291776!4d80.1581078!16s%2Fg%2F11bzv2ql91!19sChIJ_6GgPuJgUjoRT0uaSqGpcvo?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Overseas+Manpower+Corporation+Ltd./data=!4m7!3m6!1s0x3a526711c5d66db1:0xcf5f7c262c12bd07!8m2!3d13.0196171!4d80.2198928!16s%2Fg%2F11h42qg9l7!19sChIJsW3WxRFnUjoRB70SLCZ8X88?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/VT+Manpower+Consultancy+Services/data=!4m7!3m6!1s0x3a52664de24303e9:0x4b2810d26448d69b!8m2!3d13.0413076!4d80.2445159!16s%2Fg%2F1tg7_x9m!19sChIJ6QND4k1mUjoRm9ZIZNIQKEs?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/Bharathi+Manpower+Consultant+%26+Security+Services/data=!4m7!3m6!1s0x3a52669a9bd9aa8d:0x1c9d88070218bc39!8m2!3d13.0692964!4d80.2192011!16s%2Fg%2F11c6r2jsb0!19sChIJjarZm5pmUjoRObwYAgeInRw?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/Overseas+manpower+services/data=!4m7!3m6!1s0x3a526734db8cb979:0xf163c659cd72e25f!8m2!3d13.0485003!4d80.2045278!16s%2Fg%2F11jwlt3jbb!19sChIJebmM2zRnUjoRX-JyzVnGY_E?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/HRINC+-+Manpower+Recruitment+Consultants/data=!4m7!3m6!1s0x3a5265b15ba12213:0xc1173e87e61c392c!8m2!3d13.1103771!4d80.2381762!16s%2Fg%2F1tjgysy5!19sChIJEyKhW7FlUjoRLDkc5oc-F8E?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/AA+Manpower+Solutions+-+Best+Job+Consultancy+In+Chennai/data=!4m7!3m6!1s0x3a5266e985a8fc99:0xf1df03060f5e6f8b!8m2!3d13.0527546!4d80.2101942!16s%2Fg%2F11f0_c3gns!19sChIJmfyohelmUjoRi29eDwYD3_E?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/place/S.P+Manpower+Consultancy/data=!4m7!3m6!1s0x3a5267c719e33993:0x2d83835270c184a7!8m2!3d13.0535152!4d80.2643026!16s%2Fg%2F11j0d_ktzd!19sChIJkznjGcdnUjoRp4TBcFKDgy0?authuser=0&amp;hl=en&amp;rclk=1</t>
+          <t>https://www.google.com/maps/place/SS+International+Manpower+Services+Chennai/data=!4m7!3m6!1s0x3a52611f5577687b:0x2ed3bad38921abab!8m2!3d13.0381628!4d80.1650276!16s%2Fg%2F11b6v36s5b!19sChIJe2h3VR9hUjoRq6shidO60y4?authuser=0&amp;hl=en&amp;rclk=1</t>
         </is>
       </c>
     </row>
